--- a/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
+++ b/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>Serie</t>
   </si>
@@ -665,6 +665,90 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>07-08-2021</t>
+  </si>
+  <si>
+    <t>08-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>14-08-2021</t>
+  </si>
+  <si>
+    <t>15-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>21-08-2021</t>
+  </si>
+  <si>
+    <t>22-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>28-08-2021</t>
+  </si>
+  <si>
+    <t>29-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B216"/>
+  <dimension ref="A1:B244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2633,7 +2717,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>237.9663</v>
+        <v>237.9664</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2697,7 +2781,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>222.9477</v>
+        <v>223.2874</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2753,7 +2837,231 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>195.8291</v>
+        <v>195.4933</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>189.0465</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>183.3585</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>176.7975</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>167.256</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>158.4805</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>162.8177</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>167.6666</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>168.7202</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>164.8898</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>166.3455</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>163.8154</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>160.9456</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>166.8518</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>163.7594</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>165.3503</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>161.6042</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>156.5656</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>156.4447</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>158.1017</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>159.5063</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>162.1367</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>164.2676</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>163.4635</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>161.6277</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>160.7181</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>157.3638</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>160.3258</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>163.602</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
+++ b/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
     <t>Serie</t>
   </si>
@@ -749,6 +749,51 @@
   </si>
   <si>
     <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>04-09-2021</t>
+  </si>
+  <si>
+    <t>05-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>11-09-2021</t>
+  </si>
+  <si>
+    <t>12-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B244"/>
+  <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3061,7 +3106,127 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>163.602</v>
+        <v>163.7764</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>166.4978</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>165.0017</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>165.7996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>168.7137</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>173.4659</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>179.1049</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>185.4698</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>186.2432</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>187.8857</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>185.2635</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>178.3386</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>171.7846</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>172.802</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>176.4077</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>169.2314</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
+++ b/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
   <si>
     <t>Serie</t>
   </si>
@@ -794,6 +794,45 @@
   </si>
   <si>
     <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>17-09-2021</t>
+  </si>
+  <si>
+    <t>18-09-2021</t>
+  </si>
+  <si>
+    <t>19-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>25-09-2021</t>
+  </si>
+  <si>
+    <t>26-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B259"/>
+  <dimension ref="A1:B272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3226,7 +3265,111 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>169.2314</v>
+        <v>172.3976</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>173.0303</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>169.4185</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>171.2757</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>168.6392</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>169.0956</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <v>168.7361</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <v>170.481</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>171.6476</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>174.9518</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>176.2558</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>175.3675</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>180.1516</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>189.0846</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
+++ b/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>Serie</t>
   </si>
@@ -833,6 +833,27 @@
   </si>
   <si>
     <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>02-10-2021</t>
+  </si>
+  <si>
+    <t>03-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B272"/>
+  <dimension ref="A1:B279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3369,7 +3390,63 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>189.0846</v>
+        <v>189.2581</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>193.4353</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>195.1864</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>194.3698</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>193.2917</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>185.9804</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>184.7754</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>183.0694</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
+++ b/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t>Serie</t>
   </si>
@@ -854,6 +854,27 @@
   </si>
   <si>
     <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>09-10-2021</t>
+  </si>
+  <si>
+    <t>10-10-2021</t>
+  </si>
+  <si>
+    <t>11-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3446,7 +3467,63 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>183.0694</v>
+        <v>183.3866</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>186.0993</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>186.4168</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>188.7231</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>187.4273</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>185.2072</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>188.079</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>197.1793</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
+++ b/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
   <si>
     <t>Serie</t>
   </si>
@@ -875,6 +875,51 @@
   </si>
   <si>
     <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>16-10-2021</t>
+  </si>
+  <si>
+    <t>17-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>23-10-2021</t>
+  </si>
+  <si>
+    <t>24-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B286"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3526,6 +3571,126 @@
         <v>197.1793</v>
       </c>
     </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>199.073</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>199.8911</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>203.7839</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>198.6167</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>197.4831</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>200.0282</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>205.6467</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>204.8411</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>203.551</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>200.6583</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>195.611</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>190.2123</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>188.7422</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>192.7416</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>190.3404</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
+++ b/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t>Serie</t>
   </si>
@@ -920,6 +920,24 @@
   </si>
   <si>
     <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>30-10-2021</t>
+  </si>
+  <si>
+    <t>31-10-2021</t>
+  </si>
+  <si>
+    <t>01-11-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3568,7 +3586,7 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>197.1793</v>
+        <v>197.001</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3624,7 +3642,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>205.6467</v>
+        <v>205.5844</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3688,7 +3706,55 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>190.3404</v>
+        <v>189.7653</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>183.1283</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>179.3698</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>174.2133</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>166.1266</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>167.3835</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>173.1238</v>
       </c>
     </row>
   </sheetData>
